--- a/Write to Excel/ReadFromFile/student.xlsx
+++ b/Write to Excel/ReadFromFile/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\2021-2022 Level 5\OOP\Tutorials\Write to Excel\ReadFromFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\2021-2022 Level 5\1st Semester\OOP\Tutorials\Write to Excel\ReadFromFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B89CB3-5F2A-4EB8-9E91-02AD84FDEFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C7610A-360C-4406-80E3-118535AF2B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68BC998A-DF80-4A2F-A1A8-FBB2E8DD5281}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898AA14F-6928-470D-AB2D-4F3CBF6081A7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +481,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
